--- a/medicine/Enfance/Claudine_Aubrun/Claudine_Aubrun.xlsx
+++ b/medicine/Enfance/Claudine_Aubrun/Claudine_Aubrun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudine Aubrun est une autrice de livres pour la jeunesse, née en France, à Pamiers, dans l'Ariège le 8 avril 1956[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudine Aubrun est une autrice de livres pour la jeunesse, née en France, à Pamiers, dans l'Ariège le 8 avril 1956.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudine Aubrun a étudié aux Beaux Arts de Toulouse, entre 1974 et 1980. Elle a d'abord travaillé dans la communication et l’édition littéraire dans le domaine du patrimoine culturel, et devient ainsi en 1989 responsable de la collection « Patrimoine vivant », qui est coéditée par Rempart et Desclée de Brouwe. Depuis 2000, elle écrit, essentiellement pour un jeune public, des romans, des nouvelles, des fables, des scénarios, des romans graphiques. Elle s'est notamment spécialisée dans le roman policier et l'humour. Parallèlement, elle anime régulièrement des ateliers d’écriture et des rencontres, particulièrement en milieu scolaire[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudine Aubrun a étudié aux Beaux Arts de Toulouse, entre 1974 et 1980. Elle a d'abord travaillé dans la communication et l’édition littéraire dans le domaine du patrimoine culturel, et devient ainsi en 1989 responsable de la collection « Patrimoine vivant », qui est coéditée par Rempart et Desclée de Brouwe. Depuis 2000, elle écrit, essentiellement pour un jeune public, des romans, des nouvelles, des fables, des scénarios, des romans graphiques. Elle s'est notamment spécialisée dans le roman policier et l'humour. Parallèlement, elle anime régulièrement des ateliers d’écriture et des rencontres, particulièrement en milieu scolaire.
 </t>
         </is>
       </c>
